--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374134.9640861178</v>
+        <v>370511.751386726</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2821214.707946069</v>
+        <v>2254375.780409608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19391774.39632784</v>
+        <v>18836215.56344937</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5048703.19660282</v>
+        <v>5284825.316267634</v>
       </c>
     </row>
     <row r="11">
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U2" t="n">
-        <v>50.19740799690857</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.626473537507742</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>50.19740799690857</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="I8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T9" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T10" t="n">
-        <v>24.40088325534112</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>43.55459982911462</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T13" t="n">
-        <v>9.626473537507769</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="15">
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1771,25 +1773,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16.32206764769464</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H16" t="n">
-        <v>9.626473537507769</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.32206764769463</v>
+        <v>178.9131266416084</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>35.70559250379693</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I20" t="n">
-        <v>17.96478317550055</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>74.29915783835915</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.02353771150032</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>264.3952212715415</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="24">
@@ -2400,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>146.8562075204551</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>179.6983602248887</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="C26" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2637,10 +2639,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>41.68318259541176</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>17.76425168466123</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>240.9299003719209</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6592771345624158</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2877,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>44.28674900346345</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>199.3766909621407</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>18.62406031006298</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>24.89607548178781</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>86.50354346547167</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>37.08800361449701</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>41.43010407512111</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U35" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="W35" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>36.98260633123166</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>35.90507490100101</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3427,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>25.15457984420476</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>156.1024154016047</v>
+      </c>
+      <c r="H38" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G38" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.5891775064833</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>3.856470083474512</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>130.6465056677303</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040608</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.02353771150032</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X41" t="n">
-        <v>270.2841956738732</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.54209069144577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>52.3742909582879</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>75.99985991669037</v>
       </c>
       <c r="T42" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>43.55459982911461</v>
+        <v>240.929900371921</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>50.19740799690857</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>127.167154708301</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.40088325534111</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K2" t="n">
-        <v>47.68438300469032</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L2" t="n">
-        <v>97.3798169216298</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M2" t="n">
-        <v>147.0752508385693</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N2" t="n">
-        <v>196.7706847555088</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O2" t="n">
-        <v>196.7706847555088</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S2" t="n">
-        <v>150.0851794655044</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T2" t="n">
-        <v>99.38072694337451</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="U2" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V2" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W2" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H3" t="n">
-        <v>48.67627442124464</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I3" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L3" t="n">
-        <v>101.3987641537553</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M3" t="n">
-        <v>151.0941980706948</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N3" t="n">
-        <v>151.0941980706948</v>
+        <v>119.039171355639</v>
       </c>
       <c r="O3" t="n">
-        <v>151.0941980706948</v>
+        <v>119.039171355639</v>
       </c>
       <c r="P3" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="S3" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="T3" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="U3" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V3" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W3" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X3" t="n">
-        <v>150.0851794655044</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.38072694337451</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G4" t="n">
-        <v>171.052796385772</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H4" t="n">
-        <v>120.3483438636421</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I4" t="n">
-        <v>69.6438913415122</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J4" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K4" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L4" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M4" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N4" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O4" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P4" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.7765070297192</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R4" t="n">
-        <v>180.7765070297192</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S4" t="n">
-        <v>180.7765070297192</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.7765070297192</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="C5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="D5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="E5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="F5" t="n">
-        <v>156.7950867057003</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="G5" t="n">
-        <v>106.0906341835704</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="H5" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I5" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>4.015792639752686</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="L5" t="n">
-        <v>47.68438300469032</v>
+        <v>105.459032490443</v>
       </c>
       <c r="M5" t="n">
-        <v>97.3798169216298</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="N5" t="n">
-        <v>147.0752508385693</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="O5" t="n">
-        <v>147.0752508385693</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P5" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R5" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S5" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="U5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="V5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="W5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="X5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.7896319876343</v>
+        <v>114.4906266881591</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200.7896319876343</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="C6" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D6" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E6" t="n">
-        <v>200.7896319876343</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F6" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G6" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H6" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I6" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>4.015792639752686</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>51.70333023681584</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L6" t="n">
-        <v>101.3987641537553</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M6" t="n">
-        <v>101.3987641537553</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N6" t="n">
-        <v>151.0941980706948</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P6" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X6" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="Y6" t="n">
-        <v>200.7896319876343</v>
+        <v>113.8246901886011</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K7" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L7" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M7" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N7" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O7" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P7" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.0720545075893</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R7" t="n">
-        <v>79.36760198545944</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S7" t="n">
-        <v>79.36760198545944</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T7" t="n">
-        <v>79.36760198545944</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U7" t="n">
-        <v>79.36760198545944</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.66314946332957</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="D8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="E8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="F8" t="n">
-        <v>156.7950867057003</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="G8" t="n">
-        <v>106.0906341835704</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="H8" t="n">
-        <v>55.38618166144055</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="I8" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J8" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K8" t="n">
-        <v>53.71122655669217</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L8" t="n">
-        <v>53.71122655669217</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M8" t="n">
-        <v>97.3798169216298</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N8" t="n">
-        <v>147.0752508385693</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O8" t="n">
-        <v>147.0752508385693</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P8" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R8" t="n">
-        <v>200.7896319876343</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="T8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="U8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="V8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="W8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="X8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.7896319876343</v>
+        <v>107.2991500431215</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.72024516188256</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C9" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="D9" t="n">
-        <v>54.72024516188256</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="E9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H9" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I9" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J9" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K9" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L9" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M9" t="n">
-        <v>51.70333023681584</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N9" t="n">
-        <v>101.3987641537553</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="O9" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P9" t="n">
-        <v>200.7896319876343</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R9" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S9" t="n">
-        <v>99.38072694337451</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T9" t="n">
-        <v>54.72024516188256</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U9" t="n">
-        <v>54.72024516188256</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="V9" t="n">
-        <v>54.72024516188256</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="W9" t="n">
-        <v>54.72024516188256</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X9" t="n">
-        <v>54.72024516188256</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.72024516188256</v>
+        <v>107.2991500431215</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L10" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M10" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N10" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P10" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.0720545075893</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R10" t="n">
-        <v>79.36760198545944</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S10" t="n">
-        <v>28.66314946332957</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="C11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="D11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="E11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="F11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="G11" t="n">
-        <v>106.0906341835704</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H11" t="n">
-        <v>55.38618166144055</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I11" t="n">
-        <v>4.681729139310681</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J11" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K11" t="n">
-        <v>53.71122655669217</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L11" t="n">
-        <v>97.3798169216298</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="M11" t="n">
-        <v>97.3798169216298</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N11" t="n">
-        <v>147.0752508385693</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O11" t="n">
-        <v>147.0752508385693</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P11" t="n">
-        <v>196.7706847555088</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R11" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S11" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T11" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U11" t="n">
-        <v>150.0851794655044</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="V11" t="n">
-        <v>150.0851794655044</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="W11" t="n">
-        <v>150.0851794655044</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="X11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="Y11" t="n">
-        <v>150.0851794655044</v>
+        <v>5.001698072729027</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D12" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E12" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="F12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I12" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K12" t="n">
-        <v>11.40910348623759</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L12" t="n">
-        <v>61.10453740317706</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M12" t="n">
-        <v>61.10453740317706</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="N12" t="n">
-        <v>101.3987641537553</v>
+        <v>119.039171355639</v>
       </c>
       <c r="O12" t="n">
-        <v>151.0941980706948</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R12" t="n">
-        <v>150.0851794655044</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S12" t="n">
-        <v>99.38072694337451</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T12" t="n">
-        <v>48.67627442124464</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U12" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="V12" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="W12" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X12" t="n">
-        <v>4.015792639752686</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.015792639752686</v>
+        <v>107.2991500431215</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K13" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L13" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M13" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N13" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O13" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.0720545075893</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R13" t="n">
-        <v>79.36760198545944</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S13" t="n">
-        <v>28.66314946332957</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="T13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="U13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="V13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="W13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C14" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D14" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E14" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F14" t="n">
-        <v>156.1291502061423</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G14" t="n">
-        <v>105.4246976840124</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H14" t="n">
-        <v>54.72024516188256</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J14" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K14" t="n">
-        <v>4.015792639752686</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L14" t="n">
-        <v>53.71122655669217</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="M14" t="n">
-        <v>97.3798169216298</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N14" t="n">
-        <v>97.3798169216298</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="O14" t="n">
-        <v>147.0752508385693</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P14" t="n">
-        <v>196.7706847555088</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R14" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="S14" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T14" t="n">
-        <v>200.7896319876343</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="U14" t="n">
-        <v>156.1291502061423</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="V14" t="n">
-        <v>156.1291502061423</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="W14" t="n">
-        <v>156.1291502061423</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="X14" t="n">
-        <v>156.1291502061423</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="Y14" t="n">
-        <v>156.1291502061423</v>
+        <v>59.08022588088608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="C15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J15" t="n">
-        <v>11.40910348623759</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K15" t="n">
-        <v>61.10453740317706</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L15" t="n">
-        <v>61.10453740317706</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M15" t="n">
-        <v>101.3987641537553</v>
+        <v>57.99081104116254</v>
       </c>
       <c r="N15" t="n">
-        <v>151.0941980706948</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="O15" t="n">
-        <v>200.7896319876343</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7896319876343</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7896319876343</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="R15" t="n">
-        <v>156.1291502061423</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S15" t="n">
-        <v>105.4246976840124</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T15" t="n">
-        <v>105.4246976840124</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U15" t="n">
-        <v>54.72024516188256</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="V15" t="n">
-        <v>4.015792639752686</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="W15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="X15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="E16" t="n">
-        <v>130.0720545075893</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="F16" t="n">
-        <v>130.0720545075893</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0720545075893</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="H16" t="n">
-        <v>120.3483438636421</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I16" t="n">
-        <v>69.6438913415122</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J16" t="n">
-        <v>18.93943881938233</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K16" t="n">
-        <v>4.015792639752686</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L16" t="n">
-        <v>41.10231156647188</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M16" t="n">
-        <v>90.79774548341136</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N16" t="n">
-        <v>140.4931794003508</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O16" t="n">
-        <v>174.7157053500222</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7765070297192</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="S16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.0720545075893</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.08022588088608</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C17" t="n">
-        <v>59.08022588088608</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="E17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="F17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="G17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="H17" t="n">
-        <v>59.08022588088608</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="I17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J17" t="n">
-        <v>4.335761573171031</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K17" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>55.82293025457702</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>109.4779797225685</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>163.1330291905601</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>216.7880786585516</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.08022588088608</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.335761573171031</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C18" t="n">
-        <v>4.335761573171031</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D18" t="n">
-        <v>4.335761573171031</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E18" t="n">
-        <v>4.335761573171031</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F18" t="n">
-        <v>4.335761573171031</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G18" t="n">
-        <v>4.335761573171031</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H18" t="n">
-        <v>4.335761573171031</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I18" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>57.99081104116254</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>109.4779797225685</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>109.4779797225685</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N18" t="n">
-        <v>163.1330291905601</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O18" t="n">
-        <v>216.7880786585516</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
-        <v>216.7880786585516</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q18" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>168.5691544963162</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>113.8246901886011</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>59.08022588088608</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N19" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O19" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W19" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X19" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.75488671870494</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C20" t="n">
-        <v>40.75488671870494</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D20" t="n">
-        <v>40.75488671870494</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E20" t="n">
-        <v>40.75488671870494</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F20" t="n">
-        <v>40.75488671870494</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G20" t="n">
-        <v>40.75488671870494</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H20" t="n">
-        <v>40.75488671870494</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I20" t="n">
         <v>22.60864108688619</v>
@@ -5780,22 +5782,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V20" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W20" t="n">
-        <v>594.8635884189121</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X20" t="n">
-        <v>317.8092375688085</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.75488671870494</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>578.300946117182</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C21" t="n">
-        <v>578.300946117182</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="D21" t="n">
-        <v>578.300946117182</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="E21" t="n">
-        <v>503.251291735001</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H21" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
@@ -5832,19 +5834,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>359.1441712859057</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5856,25 +5858,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S21" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T21" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U21" t="n">
-        <v>830.8154377838487</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V21" t="n">
-        <v>830.8154377838487</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W21" t="n">
-        <v>578.300946117182</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X21" t="n">
-        <v>578.300946117182</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y21" t="n">
-        <v>578.300946117182</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>927.5497860026644</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G23" t="n">
         <v>21.9427045873282</v>
@@ -5993,19 +5995,19 @@
         <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6020,19 +6022,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>566.0629355096959</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>289.0085846595923</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X23" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>566.8460953168997</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>566.8460953168997</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
-        <v>419.2577886758435</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G24" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H24" t="n">
         <v>21.9427045873282</v>
@@ -6066,52 +6068,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J24" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L24" t="n">
-        <v>416.655578933882</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M24" t="n">
-        <v>416.655578933882</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6851405540922</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>801.0973387912989</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U24" t="n">
-        <v>801.0973387912989</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V24" t="n">
-        <v>566.8460953168997</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W24" t="n">
-        <v>566.8460953168997</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X24" t="n">
-        <v>566.8460953168997</v>
+        <v>203.4561997639835</v>
       </c>
       <c r="Y24" t="n">
-        <v>566.8460953168997</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>1006.151106423148</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>1006.151106423148</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>1006.151106423148</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>1006.151106423148</v>
       </c>
       <c r="J25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K25" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M25" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N25" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O25" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C26" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D26" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E26" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F26" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G26" t="n">
         <v>21.9427045873282</v>
@@ -6248,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="W26" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="X26" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="Y26" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.695819665511</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C27" t="n">
-        <v>21.9427045873282</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D27" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E27" t="n">
         <v>21.9427045873282</v>
@@ -6303,25 +6305,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L27" t="n">
-        <v>21.9427045873282</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M27" t="n">
-        <v>293.4836738555147</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N27" t="n">
-        <v>549.5069725377944</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O27" t="n">
-        <v>817.386591515115</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6336,19 +6338,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>1055.03100452256</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V27" t="n">
-        <v>820.7797610481606</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W27" t="n">
-        <v>568.2652693814939</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="X27" t="n">
-        <v>361.7383707870715</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.7383707870715</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T28" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6445,40 @@
         <v>543.0265276662028</v>
       </c>
       <c r="D29" t="n">
-        <v>299.6629919369898</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E29" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F29" t="n">
-        <v>22.60864108688619</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G29" t="n">
-        <v>22.60864108688619</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I29" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6497,16 +6499,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W29" t="n">
         <v>820.0808785163064</v>
       </c>
       <c r="X29" t="n">
-        <v>820.0808785163064</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y29" t="n">
-        <v>820.0808785163064</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.3053486626563</v>
+        <v>720.7384967156721</v>
       </c>
       <c r="C30" t="n">
-        <v>179.5522335844735</v>
+        <v>547.9853816374894</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>547.9853816374894</v>
       </c>
       <c r="E30" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F30" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G30" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H30" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>87.60320201771924</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M30" t="n">
-        <v>359.1441712859057</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O30" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6582,10 +6584,10 @@
         <v>926.4669324920217</v>
       </c>
       <c r="X30" t="n">
-        <v>725.0763355605663</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="Y30" t="n">
-        <v>519.3478997842168</v>
+        <v>720.7384967156721</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
         <v>21.9427045873282</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="C32" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="D32" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="E32" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="F32" t="n">
         <v>576.0514062875353</v>
       </c>
-      <c r="C32" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="D32" t="n">
-        <v>576.0514062875353</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="G32" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6722,13 +6724,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="T32" t="n">
-        <v>871.9179392690156</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U32" t="n">
         <v>853.1057571376389</v>
@@ -6737,13 +6739,13 @@
         <v>853.1057571376389</v>
       </c>
       <c r="W32" t="n">
-        <v>576.0514062875353</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X32" t="n">
-        <v>576.0514062875353</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y32" t="n">
-        <v>576.0514062875353</v>
+        <v>853.1057571376389</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>383.4430527433227</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C33" t="n">
-        <v>383.4430527433227</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D33" t="n">
-        <v>383.4430527433227</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E33" t="n">
-        <v>383.4430527433227</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H33" t="n">
         <v>109.3200212191178</v>
@@ -6780,22 +6782,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L33" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5364731046047</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6804,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U33" t="n">
-        <v>870.2087878843885</v>
+        <v>688.6179067114502</v>
       </c>
       <c r="V33" t="n">
-        <v>635.9575444099894</v>
+        <v>688.6179067114502</v>
       </c>
       <c r="W33" t="n">
-        <v>383.4430527433227</v>
+        <v>688.6179067114502</v>
       </c>
       <c r="X33" t="n">
-        <v>383.4430527433227</v>
+        <v>482.0910081170277</v>
       </c>
       <c r="Y33" t="n">
-        <v>383.4430527433227</v>
+        <v>276.3625723406782</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6888,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="W34" t="n">
         <v>916.4148994253914</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C35" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D35" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E35" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F35" t="n">
         <v>21.9427045873282</v>
@@ -6959,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1097.13522936641</v>
+        <v>1055.28663939154</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>1055.28663939154</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y35" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>893.8249258195958</v>
+        <v>204.2546625820565</v>
       </c>
       <c r="C36" t="n">
-        <v>721.0718107414129</v>
+        <v>204.2546625820565</v>
       </c>
       <c r="D36" t="n">
-        <v>573.4835041003568</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E36" t="n">
-        <v>415.8739751032115</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F36" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
         <v>21.9427045873282</v>
@@ -7026,13 +7028,13 @@
         <v>548.9545891439176</v>
       </c>
       <c r="N36" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7044,22 +7046,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U36" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V36" t="n">
-        <v>1097.13522936641</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W36" t="n">
-        <v>1097.13522936641</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X36" t="n">
-        <v>1097.13522936641</v>
+        <v>409.983098358406</v>
       </c>
       <c r="Y36" t="n">
-        <v>1060.867476941156</v>
+        <v>204.2546625820565</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202.6630345283467</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="C37" t="n">
-        <v>202.6630345283467</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="D37" t="n">
-        <v>170.401920923893</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X37" t="n">
-        <v>202.6630345283467</v>
+        <v>1071.726562857112</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.6630345283467</v>
+        <v>1071.726562857112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="C38" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="D38" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="E38" t="n">
-        <v>820.0808785163064</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="F38" t="n">
-        <v>543.0265276662028</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="G38" t="n">
-        <v>265.9721768160992</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I38" t="n">
         <v>21.9427045873282</v>
@@ -7199,25 +7201,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="V38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="Y38" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>698.8492704427069</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="C39" t="n">
-        <v>526.0961553645241</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="D39" t="n">
-        <v>378.5078487234679</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="E39" t="n">
-        <v>220.8983197263226</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F39" t="n">
-        <v>220.8983197263226</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
@@ -7263,7 +7265,7 @@
         <v>416.655578933882</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6851405540922</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O39" t="n">
         <v>898.564759531413</v>
@@ -7278,25 +7280,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T39" t="n">
-        <v>698.8492704427069</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U39" t="n">
-        <v>698.8492704427069</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V39" t="n">
-        <v>698.8492704427069</v>
+        <v>767.2324911838377</v>
       </c>
       <c r="W39" t="n">
-        <v>698.8492704427069</v>
+        <v>514.7179995171711</v>
       </c>
       <c r="X39" t="n">
-        <v>698.8492704427069</v>
+        <v>308.1911009227485</v>
       </c>
       <c r="Y39" t="n">
-        <v>698.8492704427069</v>
+        <v>308.1911009227485</v>
       </c>
     </row>
     <row r="40">
@@ -7309,19 +7311,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="C40" t="n">
-        <v>928.1084082237813</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>927.5497860026644</v>
       </c>
       <c r="H40" t="n">
         <v>916.4148994253914</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295.3030112179862</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C41" t="n">
-        <v>22.28867215346785</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D41" t="n">
-        <v>22.28867215346785</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E41" t="n">
-        <v>22.28867215346785</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F41" t="n">
-        <v>22.28867215346785</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G41" t="n">
-        <v>22.28867215346785</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H41" t="n">
-        <v>22.28867215346785</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>22.28867215346785</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K41" t="n">
-        <v>142.9211237160136</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L41" t="n">
-        <v>345.3715781673772</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M41" t="n">
-        <v>570.1705328914735</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>799.021966629443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O41" t="n">
-        <v>968.9915346827825</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P41" t="n">
-        <v>1077.117835463367</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S41" t="n">
-        <v>873.19238701515</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T41" t="n">
-        <v>873.19238701515</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U41" t="n">
-        <v>873.19238701515</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V41" t="n">
-        <v>873.19238701515</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W41" t="n">
-        <v>873.19238701515</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X41" t="n">
-        <v>600.1780479506316</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y41" t="n">
-        <v>568.3173502825045</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>74.52605985420067</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I42" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.01604650039475</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>29.01604650039475</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>277.0936509423128</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>544.6750046594473</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N42" t="n">
-        <v>732.3772609620603</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O42" t="n">
-        <v>999.9586146791947</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P42" t="n">
-        <v>999.9586146791947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1081.136782695493</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1081.136782695493</v>
+        <v>1020.367694097026</v>
       </c>
       <c r="T42" t="n">
-        <v>880.7503868285546</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="U42" t="n">
-        <v>653.8239453465332</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="V42" t="n">
-        <v>653.8239453465332</v>
+        <v>819.9812982300876</v>
       </c>
       <c r="W42" t="n">
-        <v>653.8239453465332</v>
+        <v>567.466806563421</v>
       </c>
       <c r="X42" t="n">
-        <v>447.2970467521106</v>
+        <v>567.466806563421</v>
       </c>
       <c r="Y42" t="n">
-        <v>241.5686109757611</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="D43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="E43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="G43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="H43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62273565390985</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>58.70925458062905</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M43" t="n">
-        <v>108.4046884975685</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N43" t="n">
-        <v>162.05973796556</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O43" t="n">
-        <v>196.2822639152314</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3430655949284</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3430655949284</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S43" t="n">
-        <v>202.3430655949284</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T43" t="n">
-        <v>202.3430655949284</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U43" t="n">
-        <v>202.3430655949284</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.62273565390985</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.0851794655044</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C44" t="n">
-        <v>99.38072694337451</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D44" t="n">
-        <v>48.67627442124464</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E44" t="n">
-        <v>4.681729139310681</v>
+        <v>576.7173427870932</v>
       </c>
       <c r="F44" t="n">
-        <v>4.681729139310681</v>
+        <v>299.6629919369897</v>
       </c>
       <c r="G44" t="n">
-        <v>4.681729139310681</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>4.681729139310681</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>4.681729139310681</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
-        <v>4.015792639752686</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K44" t="n">
-        <v>53.71122655669217</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L44" t="n">
-        <v>103.4066604736316</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M44" t="n">
-        <v>103.4066604736316</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>103.4066604736316</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>147.0752508385693</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>196.7706847555088</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.7896319876343</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>156.1291502061423</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="C45" t="n">
-        <v>156.1291502061423</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="D45" t="n">
-        <v>156.1291502061423</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="E45" t="n">
-        <v>156.1291502061423</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="F45" t="n">
-        <v>105.4246976840124</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G45" t="n">
-        <v>54.72024516188256</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I45" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>11.40910348623759</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>11.40910348623759</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>61.10453740317706</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>110.7999713201165</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N45" t="n">
-        <v>160.495405237056</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O45" t="n">
-        <v>200.7896319876343</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7896319876343</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>200.7896319876343</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S45" t="n">
-        <v>200.7896319876343</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T45" t="n">
-        <v>200.7896319876343</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U45" t="n">
-        <v>200.7896319876343</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V45" t="n">
-        <v>200.7896319876343</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W45" t="n">
-        <v>200.7896319876343</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X45" t="n">
-        <v>200.7896319876343</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.1291502061423</v>
+        <v>159.3398866126235</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>105.4246976840124</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>54.72024516188256</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K46" t="n">
-        <v>4.015792639752686</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>41.10231156647188</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M46" t="n">
-        <v>90.79774548341136</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N46" t="n">
-        <v>140.4931794003508</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O46" t="n">
-        <v>174.7157053500222</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S46" t="n">
-        <v>180.7765070297192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>130.0720545075893</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.0720545075893</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>258.6972920061668</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N2" t="n">
-        <v>273.8751450035847</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O2" t="n">
-        <v>224.3457561361446</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8058,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>175.0966421419982</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L3" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O3" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>175.1642975672761</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8146,7 +8148,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N4" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O4" t="n">
         <v>169.5633330205178</v>
@@ -8216,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>262.5353032024727</v>
       </c>
       <c r="L5" t="n">
-        <v>273.9819418330483</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M5" t="n">
-        <v>274.7849853934995</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N5" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O5" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8292,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>182.5646328960234</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N6" t="n">
-        <v>178.2555772781585</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.6796377307795</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8383,7 +8385,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N7" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O7" t="n">
         <v>169.5633330205178</v>
@@ -8453,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M8" t="n">
-        <v>268.6972646339017</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N8" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P8" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8538,19 +8540,19 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>179.2819222159661</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N9" t="n">
-        <v>178.2555772781585</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O9" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P9" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>190.6792493985089</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8620,7 +8622,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N10" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O10" t="n">
         <v>169.5633330205178</v>
@@ -8690,22 +8692,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L11" t="n">
-        <v>273.9819418330483</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N11" t="n">
-        <v>273.8751450035847</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P11" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8772,19 +8774,19 @@
         <v>134.395403</v>
       </c>
       <c r="L12" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N12" t="n">
-        <v>168.7594084232482</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2287463302419</v>
+        <v>183.5705886716374</v>
       </c>
       <c r="P12" t="n">
-        <v>180.8224552258806</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -8857,7 +8859,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N13" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O13" t="n">
         <v>169.5633330205178</v>
@@ -8927,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>266.5948458611853</v>
       </c>
       <c r="L14" t="n">
-        <v>280.0696625926461</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M14" t="n">
-        <v>268.6972646339017</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>277.8747566713141</v>
       </c>
       <c r="O14" t="n">
-        <v>274.5431641330531</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P14" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>184.5928109969086</v>
+        <v>134.395403</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
-        <v>179.2819222159661</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N15" t="n">
-        <v>178.2555772781585</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2287463302419</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P15" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>188.4894708262003</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9094,7 +9096,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N16" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
         <v>169.5633330205178</v>
@@ -9164,25 +9166,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>276.5948184889202</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P17" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>188.5924226646379</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>187.0977613777066</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>182.2551889458879</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O18" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9419,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,22 +9482,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>221.1367956094978</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>277.816905905207</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>319.9923377087007</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N27" t="n">
-        <v>386.6675618896134</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10112,7 +10114,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10188,16 +10190,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>193.946264309525</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>288.5325750270039</v>
       </c>
       <c r="N30" t="n">
         <v>402.3419766228525</v>
@@ -10206,7 +10208,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10428,16 +10430,16 @@
         <v>123.666686</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>347.1828690086734</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>278.010061234286</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10446,7 +10448,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10604,7 +10606,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10674,16 +10676,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N36" t="n">
-        <v>329.1923644619304</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10911,10 +10913,10 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>351.5244810902469</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11066,7 +11068,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M41" t="n">
-        <v>451.6572286330519</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
@@ -11139,25 +11141,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>408.864878747841</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N42" t="n">
-        <v>317.6564079707581</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>409.3155340072065</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11297,22 +11299,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>264.7850127657646</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>280.0696625926461</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
-        <v>268.4554433734553</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>275.6495788582964</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11373,25 +11375,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
         <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>185.2879282822859</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>188.7780910708764</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N45" t="n">
-        <v>178.2555772781585</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O45" t="n">
-        <v>179.7325774753315</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -11464,7 +11466,7 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N46" t="n">
-        <v>174.6908138505109</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S2" t="n">
-        <v>155.6675437266307</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T2" t="n">
-        <v>172.7677091995118</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U2" t="n">
-        <v>201.2803555796359</v>
+        <v>203.7410286559314</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22610,7 +22612,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>326.6477221674924</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -22644,7 +22646,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>42.28966650179463</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>46.95824484047818</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>144.1855122436308</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22689,10 +22691,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>154.2642216115697</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>153.4737434216775</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>158.2631153926003</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>111.4366640120083</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22793,16 +22795,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>363.7392636514262</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>287.9464953912448</v>
+        <v>283.9468837235155</v>
       </c>
       <c r="I5" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>175.8876594103697</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>111.1751059457069</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>116.8285642627631</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -22872,16 +22874,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>99.29235511987224</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>85.82580220813375</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>156.7248946878652</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>129.3576635420625</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
@@ -22984,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.56329187893961</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R7" t="n">
-        <v>123.1937396728737</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -23030,16 +23032,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>363.7392636514262</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>287.9464953912448</v>
+        <v>291.0664456021028</v>
       </c>
       <c r="I8" t="n">
-        <v>155.0268998712154</v>
+        <v>151.0272882034861</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -23100,13 +23102,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>123.288849006788</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>101.8364140425359</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -23118,7 +23120,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>118.7642059087358</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T9" t="n">
-        <v>154.1686549445917</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -23163,7 +23165,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.56329187893961</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R10" t="n">
-        <v>123.1937396728737</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S10" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T10" t="n">
-        <v>203.9315827361665</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>371.3001655747163</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>287.9464953912448</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>155.0268998712154</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.65341470396851</v>
+        <v>87.65380303623918</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23315,13 +23317,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>274.3362018578815</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>296.3330973359167</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>323.7841413451188</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23337,7 +23339,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>116.8285642627631</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -23346,7 +23348,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>95.76949716293626</v>
       </c>
       <c r="G12" t="n">
         <v>136.0232102050423</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>118.7642059087358</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T12" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>180.4433001035242</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23403,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23442,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.56329187893961</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R13" t="n">
-        <v>123.1937396728737</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S13" t="n">
-        <v>172.159998964514</v>
+        <v>168.1603872967846</v>
       </c>
       <c r="T13" t="n">
-        <v>218.7059924539999</v>
+        <v>212.010398343813</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>329.5193903267572</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H14" t="n">
-        <v>287.9464953912448</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>155.0268998712154</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>94.11408778026404</v>
       </c>
       <c r="S14" t="n">
         <v>205.8649517235392</v>
@@ -23549,7 +23551,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2638866128674</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23558,10 +23560,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>332.4900520865979</v>
       </c>
     </row>
     <row r="15">
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.48110279741417</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>118.7642059087358</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T15" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>174.4597690702927</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V15" t="n">
-        <v>181.7113230427466</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>202.252611829387</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23659,25 +23661,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>130.6525565255045</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>91.9620017451666</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>113.6925692654702</v>
       </c>
       <c r="H16" t="n">
-        <v>152.0075984714091</v>
+        <v>107.4370523442789</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5611388004951</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>38.64143693087037</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
         <v>173.3911476697823</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -23750,7 +23752,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
         <v>0.6592771345624158</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>94.11408778026404</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>151.6679320589013</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>168.7680975317825</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
@@ -23798,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.95824484047818</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>170.4601574025633</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23935,7 +23937,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
         <v>222.3574069614225</v>
@@ -23950,13 +23952,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>231.8955572227777</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>171.9433402676714</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4266062200736</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23974,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>371.5882709767439</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I20" t="n">
-        <v>187.2595246926235</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
@@ -24029,13 +24031,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>81.73427586881468</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>84.77749677868428</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24139,10 +24141,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
-        <v>150.6105342974165</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I22" t="n">
         <v>153.7585467974036</v>
@@ -24184,7 +24186,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24218,7 +24220,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>173.2655878973476</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
@@ -24260,19 +24262,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>106.4663778596279</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="24">
@@ -24288,19 +24290,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>9.177226186718769</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I24" t="n">
         <v>86.50354346547167</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
         <v>168.9616139056444</v>
@@ -24345,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>23.9727911936973</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>56.08473969597509</v>
       </c>
       <c r="G25" t="n">
         <v>167.8895889301081</v>
@@ -24385,7 +24387,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24412,7 +24414,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>261.1720114207308</v>
       </c>
       <c r="C26" t="n">
-        <v>125.3959181724593</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E26" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
         <v>338.1439033881534</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24497,7 +24499,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24525,10 +24527,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -24576,19 +24578,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9739944717895</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>232.2250950653388</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,10 +24654,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>49.41933934989927</v>
       </c>
       <c r="U28" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24677,31 +24679,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>115.6748323826775</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I29" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,19 +24767,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>111.7466847037104</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>5.08493864633752</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W31" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24923,16 +24925,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>106.126596917933</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>232.8537032664814</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -25005,13 +25007,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>118.6101566017615</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>187.5691734527042</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>49.41933934989927</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25160,10 +25162,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>141.5288582488041</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>414.8547654038309</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>100.420718625756</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>109.1298172434139</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
         <v>86.50354346547167</v>
@@ -25284,22 +25286,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.766076517585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,10 +25317,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0670640461102</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25330,7 +25332,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>88.83884492777894</v>
@@ -25375,7 +25377,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>200.9857800881045</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -25400,16 +25402,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>140.5709580622284</v>
+        <v>258.7523500022262</v>
       </c>
       <c r="H38" t="n">
-        <v>96.55472588167004</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0.6592771345624158</v>
@@ -25439,10 +25441,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.4777635765444</v>
@@ -25470,25 +25472,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>152.1769636236993</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>67.73602624053837</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25561,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>150.6105342974165</v>
       </c>
       <c r="I40" t="n">
         <v>153.7585467974036</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>113.4322143175219</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>96.70090000506946</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25637,13 +25639,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
@@ -25676,7 +25678,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
         <v>222.9651171964204</v>
@@ -25685,16 +25687,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X41" t="n">
-        <v>100.5774034572962</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>355.14498105979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>118.6512929691131</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25755,22 +25757,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>92.96175398895402</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>156.1120930370908</v>
       </c>
       <c r="I43" t="n">
         <v>153.7585467974036</v>
@@ -25831,7 +25833,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25843,7 +25845,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>316.7876876820341</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>306.4073247576898</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>339.5634359261728</v>
+        <v>142.1881353833665</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25931,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>85.82580220813375</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
         <v>86.50354346547167</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -25998,19 +26000,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>77.29447490017731</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.457274454909</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26023,13 +26025,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9356696758612</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>98.80815851761079</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>96.77721617629061</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26074,10 +26076,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360275.5289248159</v>
+        <v>363259.137380245</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360275.5289248159</v>
+        <v>363259.1373802448</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360275.528924816</v>
+        <v>363259.137380245</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>360275.5289248159</v>
+        <v>363259.1373802449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360275.5289248158</v>
+        <v>363259.1373802449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363259.1373802449</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519667.5667008524</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519667.5667008522</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516825.1744543893</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360275.5289248159</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72049.42751784839</v>
+        <v>72645.74561983685</v>
       </c>
       <c r="C2" t="n">
-        <v>72049.42751784841</v>
+        <v>72645.74561983685</v>
       </c>
       <c r="D2" t="n">
-        <v>72049.42751784841</v>
+        <v>72645.74561983685</v>
       </c>
       <c r="E2" t="n">
-        <v>72049.42751784839</v>
+        <v>72645.74561983682</v>
       </c>
       <c r="F2" t="n">
-        <v>72049.42751784839</v>
+        <v>72645.74561983683</v>
       </c>
       <c r="G2" t="n">
-        <v>72645.74561983683</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="H2" t="n">
         <v>103906.2743054104</v>
@@ -26350,10 +26352,10 @@
         <v>103906.2743054104</v>
       </c>
       <c r="O2" t="n">
-        <v>103338.1803430699</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="P2" t="n">
-        <v>72049.42751784841</v>
+        <v>103906.2743054104</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16822.30596014799</v>
+        <v>18162.66782107245</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1096.233563949593</v>
+        <v>60322.48720044085</v>
       </c>
       <c r="H3" t="n">
-        <v>59381.39609633415</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13133.85061794315</v>
+        <v>14180.32501313452</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52964.10554124921</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12079.43026361794</v>
+        <v>12183.87668831067</v>
       </c>
       <c r="C4" t="n">
-        <v>12079.43026361794</v>
+        <v>12183.87668831067</v>
       </c>
       <c r="D4" t="n">
-        <v>12079.43026361794</v>
+        <v>12183.87668831067</v>
       </c>
       <c r="E4" t="n">
-        <v>12079.43026361794</v>
+        <v>12183.87668831067</v>
       </c>
       <c r="F4" t="n">
-        <v>12079.43026361794</v>
+        <v>12183.87668831067</v>
       </c>
       <c r="G4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="H4" t="n">
+        <v>17659.22691552231</v>
+      </c>
+      <c r="I4" t="n">
         <v>17659.22691552232</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>17659.22691552231</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>17659.22691552232</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>17659.22691552232</v>
+      </c>
+      <c r="M4" t="n">
         <v>17659.22691552231</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
+        <v>17659.22691552232</v>
+      </c>
+      <c r="O4" t="n">
         <v>17659.22691552231</v>
       </c>
-      <c r="M4" t="n">
-        <v>17659.22691552232</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>17659.22691552231</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17559.7240108509</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12079.43026361794</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="C5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>36679.60240621204</v>
+        <v>36922.77879560999</v>
       </c>
       <c r="E5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="F5" t="n">
-        <v>3052.002406212041</v>
+        <v>3295.178795609984</v>
       </c>
       <c r="G5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="H5" t="n">
         <v>16676.45548636943</v>
@@ -26506,10 +26508,10 @@
         <v>16676.45548636943</v>
       </c>
       <c r="O5" t="n">
-        <v>16433.27909697149</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="P5" t="n">
-        <v>3052.002406212041</v>
+        <v>16676.45548636943</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6468.088887870421</v>
+        <v>5376.422314843745</v>
       </c>
       <c r="C6" t="n">
-        <v>23290.39484801843</v>
+        <v>23539.09013591619</v>
       </c>
       <c r="D6" t="n">
-        <v>23290.39484801843</v>
+        <v>23539.09013591619</v>
       </c>
       <c r="E6" t="n">
-        <v>56917.99484801841</v>
+        <v>57166.69013591616</v>
       </c>
       <c r="F6" t="n">
-        <v>56917.99484801841</v>
+        <v>57166.69013591617</v>
       </c>
       <c r="G6" t="n">
-        <v>56070.45657196658</v>
+        <v>9248.104703077814</v>
       </c>
       <c r="H6" t="n">
-        <v>10189.1958071845</v>
+        <v>69570.59190351868</v>
       </c>
       <c r="I6" t="n">
-        <v>69570.59190351862</v>
+        <v>69570.59190351868</v>
       </c>
       <c r="J6" t="n">
-        <v>56436.7412855755</v>
+        <v>55390.2668903841</v>
       </c>
       <c r="K6" t="n">
         <v>69570.59190351865</v>
       </c>
       <c r="L6" t="n">
+        <v>69570.59190351862</v>
+      </c>
+      <c r="M6" t="n">
+        <v>69570.59190351862</v>
+      </c>
+      <c r="N6" t="n">
         <v>69570.59190351868</v>
       </c>
-      <c r="M6" t="n">
-        <v>69570.59190351865</v>
-      </c>
-      <c r="N6" t="n">
-        <v>69570.59190351865</v>
-      </c>
       <c r="O6" t="n">
-        <v>69345.17723524749</v>
+        <v>16606.48636226942</v>
       </c>
       <c r="P6" t="n">
-        <v>56917.99484801842</v>
+        <v>69570.59190351862</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H4" t="n">
         <v>274.2838073416025</v>
@@ -26826,10 +26828,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O4" t="n">
-        <v>270.2841956738732</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.19701966463789</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>220.0867876769646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.19740799690857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999611667729326</v>
+        <v>220.0867876769646</v>
       </c>
       <c r="P4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N2" t="n">
-        <v>50.19740799690857</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34778,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O4" t="n">
         <v>34.56820802997106</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="L5" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N5" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N6" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N7" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O7" t="n">
         <v>34.56820802997106</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M8" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N8" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P8" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N9" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="O9" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P9" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N10" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O10" t="n">
         <v>34.56820802997106</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>44.10968723731074</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N11" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P11" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>4.059542658712616</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N12" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O12" t="n">
-        <v>50.19740799690857</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="P12" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N13" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O13" t="n">
         <v>34.56820802997106</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="L14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M14" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P14" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>40.70123914199824</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O15" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N16" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O16" t="n">
         <v>34.56820802997106</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M17" t="n">
-        <v>52.00724109232928</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N17" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O17" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P17" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>54.19701966463789</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
-        <v>52.00724109232928</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>54.19701966463789</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O18" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>82.55611253552989</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O21" t="n">
-        <v>270.5854737144654</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>250.5834388302202</v>
+        <v>184.9018174233233</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N27" t="n">
-        <v>258.6093926083634</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L29" t="n">
         <v>204.4954085367308</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
-        <v>58.85574402414761</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>149.951891953036</v>
       </c>
       <c r="N30" t="n">
         <v>274.2838073416025</v>
@@ -36926,7 +36928,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L33" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>208.6021859347056</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>149.951891953036</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>201.1341951806804</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
-        <v>270.5854737144654</v>
+        <v>212.4931427569136</v>
       </c>
       <c r="P39" t="n">
         <v>200.5762321565626</v>
@@ -37786,7 +37788,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M41" t="n">
-        <v>227.069651236461</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N41" t="n">
         <v>231.1630643817873</v>
@@ -37859,25 +37861,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2841956738732</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5982386895081</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>270.2841956738732</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>50.19740799690857</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L44" t="n">
-        <v>50.19740799690857</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O44" t="n">
-        <v>44.10968723731074</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P44" t="n">
-        <v>50.19740799690857</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q44" t="n">
         <v>4.059542658712616</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>50.19740799690857</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>50.19740799690857</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O45" t="n">
-        <v>40.70123914199823</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>50.19740799690857</v>
       </c>
       <c r="N46" t="n">
-        <v>50.19740799690857</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O46" t="n">
         <v>34.56820802997106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370511.751386726</v>
+        <v>268797.155329459</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2254375.780409608</v>
+        <v>925407.2786592091</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18836215.56344937</v>
+        <v>17533693.53488381</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5284825.316267634</v>
+        <v>6008979.95621263</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>47.73673492061304</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>54.19701966463789</v>
+        <v>155.0502533759</v>
       </c>
       <c r="T3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.19701966463789</v>
+        <v>138.0809734497885</v>
       </c>
       <c r="C6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.19701966463789</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>54.19701966463789</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>38.27846026556773</v>
       </c>
       <c r="C9" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>54.19701966463789</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.19701966463789</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T10" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.19701966463789</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>54.19701966463789</v>
+        <v>122.5443985706642</v>
       </c>
       <c r="W11" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>47.07745778605062</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>48.08312236674313</v>
       </c>
       <c r="C12" t="n">
-        <v>54.19701966463789</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>47.73673492061303</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>54.19701966463789</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>47.73673492061304</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>54.19701966463789</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>54.19701966463789</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>47.73673492061303</v>
+        <v>199.7419103973702</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>16.32206764769464</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>54.19701966463789</v>
+        <v>11.57657371040602</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219.4759005688517</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S17" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="D17" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>79.25945411965169</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.70559250379693</v>
+        <v>17.96478317550053</v>
       </c>
       <c r="G20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>58.72873530486501</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>36.9103559185569</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2228,7 +2228,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>18.62406031006298</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2465,7 +2465,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>179.6983602248887</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>90.07428171382941</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122.5443985706642</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>274.2838073416025</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>17.76425168466123</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="28">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H29" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.1165444242669</v>
       </c>
       <c r="W29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>44.28674900346345</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>233.2681095287566</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>99.73835480560622</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
-        <v>37.08800361449701</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>240.63291880877</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.43010407512111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="W35" t="n">
-        <v>274.2838073416025</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>36.98260633123166</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>205.0305299076875</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X37" t="n">
-        <v>25.15457984420476</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>156.1024154016047</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>3.856470083474512</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3650,7 +3650,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>29.907560127089</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11.02353771150032</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>219.4759005688517</v>
       </c>
       <c r="V41" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>75.99985991669037</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.43010407512099</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>240.929900371921</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>274.2838073416025</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>127.167154708301</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E2" t="n">
-        <v>4.335761573171031</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="F2" t="n">
-        <v>4.335761573171031</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335761573171031</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J2" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>4.335761573171031</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>57.99081104116254</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>105.459032490443</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>159.1140819584346</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>107.2991500431215</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>52.55468573540642</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.335761573171031</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.335761573171031</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="C3" t="n">
-        <v>4.335761573171031</v>
+        <v>472.0963302089128</v>
       </c>
       <c r="D3" t="n">
-        <v>4.335761573171031</v>
+        <v>324.5080235678566</v>
       </c>
       <c r="E3" t="n">
-        <v>4.335761573171031</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>65.38412188764744</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>65.38412188764744</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>65.38412188764744</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N3" t="n">
-        <v>119.039171355639</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="O3" t="n">
-        <v>119.039171355639</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>168.5691544963162</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>113.8246901886011</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="T3" t="n">
-        <v>59.08022588088608</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="U3" t="n">
-        <v>4.335761573171031</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="V3" t="n">
-        <v>4.335761573171031</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="W3" t="n">
-        <v>4.335761573171031</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="X3" t="n">
-        <v>4.335761573171031</v>
+        <v>844.8673171068227</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.335761573171031</v>
+        <v>639.1388813304732</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>4.335761573171031</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.4906266881591</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="C5" t="n">
-        <v>114.4906266881591</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="D5" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>114.4906266881591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I5" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J5" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>51.80398302245153</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L5" t="n">
-        <v>105.459032490443</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M5" t="n">
-        <v>159.1140819584346</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N5" t="n">
-        <v>212.7691314264261</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>114.4906266881591</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>114.4906266881591</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>114.4906266881591</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>114.4906266881591</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="X5" t="n">
-        <v>114.4906266881591</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.4906266881591</v>
+        <v>265.9721768160992</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.08022588088608</v>
+        <v>609.4935122342081</v>
       </c>
       <c r="C6" t="n">
-        <v>4.335761573171031</v>
+        <v>609.4935122342081</v>
       </c>
       <c r="D6" t="n">
-        <v>4.335761573171031</v>
+        <v>461.9052055931519</v>
       </c>
       <c r="E6" t="n">
-        <v>4.335761573171031</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F6" t="n">
-        <v>4.335761573171031</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>11.72907241965593</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>11.72907241965593</v>
+        <v>26.22704853682407</v>
       </c>
       <c r="L6" t="n">
-        <v>11.72907241965593</v>
+        <v>274.3046529787421</v>
       </c>
       <c r="M6" t="n">
-        <v>65.38412188764744</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N6" t="n">
-        <v>109.4779797225685</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O6" t="n">
-        <v>163.1330291905601</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V6" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W6" t="n">
-        <v>216.7880786585516</v>
+        <v>748.9692429915702</v>
       </c>
       <c r="X6" t="n">
-        <v>168.5691544963162</v>
+        <v>748.9692429915702</v>
       </c>
       <c r="Y6" t="n">
-        <v>113.8246901886011</v>
+        <v>748.9692429915702</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O7" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P7" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C8" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D8" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E8" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F8" t="n">
-        <v>107.2991500431215</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2991500431215</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>59.74616238044408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>4.335761573171031</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L8" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M8" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N8" t="n">
-        <v>165.3009099771456</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O8" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P8" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="T8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X8" t="n">
-        <v>107.2991500431215</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="Y8" t="n">
-        <v>107.2991500431215</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.2991500431215</v>
+        <v>133.521003094533</v>
       </c>
       <c r="C9" t="n">
-        <v>59.08022588088608</v>
+        <v>133.521003094533</v>
       </c>
       <c r="D9" t="n">
-        <v>59.08022588088608</v>
+        <v>133.521003094533</v>
       </c>
       <c r="E9" t="n">
-        <v>4.335761573171031</v>
+        <v>133.521003094533</v>
       </c>
       <c r="F9" t="n">
-        <v>4.335761573171031</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G9" t="n">
-        <v>4.335761573171031</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>11.72907241965593</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>11.72907241965593</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>65.38412188764744</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N9" t="n">
-        <v>109.4779797225685</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>163.1330291905601</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>163.1330291905601</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>162.0436143508365</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>162.0436143508365</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V9" t="n">
-        <v>162.0436143508365</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="W9" t="n">
-        <v>162.0436143508365</v>
+        <v>377.9145502502439</v>
       </c>
       <c r="X9" t="n">
-        <v>107.2991500431215</v>
+        <v>377.9145502502439</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.2991500431215</v>
+        <v>172.1861144738944</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O10" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P10" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>20.8226985910444</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
-        <v>5.001698072729027</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J11" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K11" t="n">
-        <v>4.335761573171031</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L11" t="n">
-        <v>57.99081104116254</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>111.6458605091541</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>165.3009099771456</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>212.7691314264261</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7691314264261</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T11" t="n">
-        <v>162.0436143508365</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U11" t="n">
-        <v>162.0436143508365</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V11" t="n">
-        <v>107.2991500431215</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W11" t="n">
-        <v>52.55468573540642</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X11" t="n">
-        <v>5.001698072729027</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.001698072729027</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.2991500431215</v>
+        <v>782.246627312391</v>
       </c>
       <c r="C12" t="n">
-        <v>52.55468573540642</v>
+        <v>609.4935122342081</v>
       </c>
       <c r="D12" t="n">
-        <v>52.55468573540642</v>
+        <v>461.9052055931519</v>
       </c>
       <c r="E12" t="n">
-        <v>52.55468573540642</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F12" t="n">
-        <v>4.335761573171031</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>11.72907241965593</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K12" t="n">
-        <v>11.72907241965593</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L12" t="n">
-        <v>11.72907241965593</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M12" t="n">
-        <v>65.38412188764744</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N12" t="n">
-        <v>119.039171355639</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1330291905601</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P12" t="n">
-        <v>216.7880786585516</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q12" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>216.7880786585516</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X12" t="n">
-        <v>162.0436143508365</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.2991500431215</v>
+        <v>830.8154377838487</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>4.335761573171031</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M13" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N13" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O13" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P13" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.3116272064745</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>75.56716289875945</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>20.8226985910444</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.335761573171031</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J14" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>55.82293025457702</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L14" t="n">
-        <v>109.4779797225685</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M14" t="n">
-        <v>109.4779797225685</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N14" t="n">
-        <v>163.1330291905601</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O14" t="n">
-        <v>216.7880786585516</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
-        <v>216.7880786585516</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>168.5691544963162</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>168.5691544963162</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>168.5691544963162</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>168.5691544963162</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V14" t="n">
-        <v>168.5691544963162</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W14" t="n">
-        <v>168.5691544963162</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X14" t="n">
-        <v>113.8246901886011</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.08022588088608</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>4.335761573171031</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>4.335761573171031</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>4.335761573171031</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M15" t="n">
-        <v>57.99081104116254</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N15" t="n">
-        <v>111.6458605091541</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O15" t="n">
-        <v>165.3009099771456</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
-        <v>165.3009099771456</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>216.7880786585516</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T15" t="n">
-        <v>162.0436143508365</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U15" t="n">
-        <v>107.2991500431215</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V15" t="n">
-        <v>52.55468573540642</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W15" t="n">
-        <v>4.335761573171031</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X15" t="n">
-        <v>4.335761573171031</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>185.0560915141895</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="D16" t="n">
-        <v>185.0560915141895</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="E16" t="n">
-        <v>168.5691544963162</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8246901886011</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G16" t="n">
-        <v>59.08022588088608</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
-        <v>4.335761573171031</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>41.42228049989023</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M16" t="n">
-        <v>91.1177144168297</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N16" t="n">
-        <v>144.7727638848212</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O16" t="n">
-        <v>178.9952898344926</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.0560915141895</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>543.0265276662028</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="C17" t="n">
-        <v>265.9721768160992</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="D17" t="n">
-        <v>21.94270458732819</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="E17" t="n">
-        <v>21.94270458732819</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="F17" t="n">
-        <v>21.94270458732819</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="G17" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H17" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I17" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J17" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
         <v>143.241092649432</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="Y17" t="n">
-        <v>820.0808785163064</v>
+        <v>243.6355334447542</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.2022424513852</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C18" t="n">
-        <v>808.4491273732024</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D18" t="n">
-        <v>660.8608207321463</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E18" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K18" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L18" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M18" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N18" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O18" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P18" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q18" t="n">
         <v>1097.13522936641</v>
@@ -5627,19 +5627,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.13522936641</v>
+        <v>1017.075174700095</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.13522936641</v>
+        <v>1017.075174700095</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.13522936641</v>
+        <v>764.5606830334284</v>
       </c>
       <c r="X18" t="n">
-        <v>1097.13522936641</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="Y18" t="n">
-        <v>1097.13522936641</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F19" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G19" t="n">
         <v>21.9427045873282</v>
@@ -5718,7 +5718,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="C20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D20" t="n">
-        <v>820.0808785163064</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="E20" t="n">
-        <v>820.0808785163064</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="F20" t="n">
-        <v>784.014623461966</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G20" t="n">
-        <v>506.9602726118625</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I20" t="n">
         <v>22.60864108688619</v>
@@ -5782,22 +5782,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.13522936641</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81.2646594407272</v>
+        <v>231.9790074620331</v>
       </c>
       <c r="C21" t="n">
-        <v>81.2646594407272</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="D21" t="n">
-        <v>81.2646594407272</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="E21" t="n">
-        <v>81.2646594407272</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="G21" t="n">
-        <v>21.9427045873282</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="H21" t="n">
-        <v>21.9427045873282</v>
+        <v>59.22589238385032</v>
       </c>
       <c r="I21" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L21" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M21" t="n">
-        <v>688.1965482020685</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N21" t="n">
-        <v>959.7375174702549</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="O21" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5855,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>1001.483734658237</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U21" t="n">
-        <v>774.5572931762155</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V21" t="n">
-        <v>540.3060497018164</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="W21" t="n">
-        <v>287.7915580351497</v>
+        <v>644.2343418328052</v>
       </c>
       <c r="X21" t="n">
-        <v>81.2646594407272</v>
+        <v>437.7074432383827</v>
       </c>
       <c r="Y21" t="n">
-        <v>81.2646594407272</v>
+        <v>231.9790074620331</v>
       </c>
     </row>
     <row r="22">
@@ -5943,7 +5943,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
         <v>21.9427045873282</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H23" t="n">
         <v>21.9427045873282</v>
@@ -5989,25 +5989,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732809</v>
       </c>
       <c r="K23" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623911</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003606</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813537</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6019,22 +6019,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V23" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W23" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X23" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y23" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9955038364183</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>476.5364731046047</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N24" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6098,19 +6098,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>896.7488334994719</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V24" t="n">
-        <v>662.4975900250727</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W24" t="n">
-        <v>409.983098358406</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X24" t="n">
-        <v>203.4561997639835</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y24" t="n">
         <v>21.9427045873282</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D25" t="n">
-        <v>1097.13522936641</v>
+        <v>170.401920923893</v>
       </c>
       <c r="E25" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F25" t="n">
-        <v>1006.151106423148</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G25" t="n">
-        <v>1006.151106423148</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H25" t="n">
-        <v>1006.151106423148</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I25" t="n">
-        <v>1006.151106423148</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K25" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M25" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N25" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O25" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>576.0514062875353</v>
       </c>
       <c r="C26" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="D26" t="n">
         <v>298.9970554374318</v>
       </c>
-      <c r="D26" t="n">
-        <v>21.9427045873282</v>
-      </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6250,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T26" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U26" t="n">
-        <v>699.833627065984</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V26" t="n">
-        <v>699.833627065984</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W26" t="n">
-        <v>699.833627065984</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X26" t="n">
-        <v>699.833627065984</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y26" t="n">
-        <v>699.833627065984</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>499.8936553037125</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C27" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D27" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E27" t="n">
         <v>21.9427045873282</v>
@@ -6305,22 +6305,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M27" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N27" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
         <v>1097.13522936641</v>
@@ -6338,19 +6338,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U27" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V27" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W27" t="n">
-        <v>1079.191540796045</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6646422016225</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y27" t="n">
-        <v>666.936206425273</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M28" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O28" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="C29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G29" t="n">
-        <v>265.9721768160992</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H29" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I29" t="n">
         <v>21.9427045873282</v>
@@ -6466,19 +6466,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K29" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T29" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U29" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V29" t="n">
-        <v>1097.13522936641</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="W29" t="n">
-        <v>820.0808785163064</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="X29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="Y29" t="n">
-        <v>543.0265276662028</v>
+        <v>506.2943361123045</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.7384967156721</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>547.9853816374894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>547.9853816374894</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I30" t="n">
         <v>21.9427045873282</v>
@@ -6545,19 +6545,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L30" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M30" t="n">
-        <v>557.7146411209028</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N30" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O30" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6569,25 +6569,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>926.4669324920217</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U30" t="n">
-        <v>926.4669324920217</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V30" t="n">
-        <v>926.4669324920217</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="W30" t="n">
-        <v>926.4669324920217</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X30" t="n">
-        <v>926.4669324920217</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y30" t="n">
-        <v>720.7384967156721</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6657,7 +6657,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
         <v>21.9427045873282</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C32" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D32" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E32" t="n">
-        <v>853.1057571376389</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F32" t="n">
-        <v>576.0514062875353</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6703,19 +6703,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6724,25 +6724,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R32" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y32" t="n">
         <v>853.1057571376389</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.3200212191178</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C33" t="n">
-        <v>109.3200212191178</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D33" t="n">
-        <v>109.3200212191178</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I33" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L33" t="n">
-        <v>409.2622680873972</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M33" t="n">
-        <v>680.8032373555836</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N33" t="n">
-        <v>829.2556103890893</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O33" t="n">
-        <v>1097.13522936641</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4669324920217</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T33" t="n">
-        <v>726.0805366250836</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U33" t="n">
-        <v>688.6179067114502</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="V33" t="n">
-        <v>688.6179067114502</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="W33" t="n">
-        <v>688.6179067114502</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="X33" t="n">
-        <v>482.0910081170277</v>
+        <v>558.0337844390059</v>
       </c>
       <c r="Y33" t="n">
-        <v>276.3625723406782</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G35" t="n">
         <v>21.9427045873282</v>
@@ -6961,28 +6961,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R35" t="n">
-        <v>1055.28663939154</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1055.28663939154</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T35" t="n">
-        <v>830.0693492941459</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U35" t="n">
-        <v>576.0514062875353</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V35" t="n">
+        <v>340.8456454123015</v>
+      </c>
+      <c r="W35" t="n">
         <v>298.9970554374318</v>
       </c>
-      <c r="W35" t="n">
-        <v>21.9427045873282</v>
-      </c>
       <c r="X35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y35" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>204.2546625820565</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
-        <v>204.2546625820565</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
         <v>21.9427045873282</v>
@@ -7016,19 +7016,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540922</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O36" t="n">
         <v>898.564759531413</v>
@@ -7049,19 +7049,19 @@
         <v>896.7488334994719</v>
       </c>
       <c r="U36" t="n">
-        <v>896.7488334994719</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V36" t="n">
-        <v>662.4975900250727</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W36" t="n">
-        <v>409.983098358406</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X36" t="n">
-        <v>409.983098358406</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y36" t="n">
-        <v>204.2546625820565</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K37" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L37" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M37" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N37" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O37" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y37" t="n">
-        <v>1071.726562857112</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F38" t="n">
-        <v>663.9735435886729</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G38" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H38" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I38" t="n">
         <v>21.9427045873282</v>
@@ -7201,25 +7201,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T38" t="n">
-        <v>663.9735435886729</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U38" t="n">
-        <v>663.9735435886729</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V38" t="n">
-        <v>663.9735435886729</v>
+        <v>617.899996262405</v>
       </c>
       <c r="W38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y38" t="n">
-        <v>663.9735435886729</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
         <v>21.9427045873282</v>
@@ -7253,52 +7253,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>416.655578933882</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M39" t="n">
-        <v>416.655578933882</v>
+        <v>293.4836738555147</v>
       </c>
       <c r="N39" t="n">
-        <v>688.1965482020685</v>
+        <v>565.0246431237011</v>
       </c>
       <c r="O39" t="n">
-        <v>898.564759531413</v>
+        <v>832.9042621010219</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>1001.483734658237</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V39" t="n">
-        <v>767.2324911838377</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W39" t="n">
-        <v>514.7179995171711</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X39" t="n">
-        <v>308.1911009227485</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y39" t="n">
-        <v>308.1911009227485</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C40" t="n">
-        <v>1097.13522936641</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="D40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>927.5497860026644</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F41" t="n">
-        <v>299.6629919369898</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G41" t="n">
-        <v>299.6629919369898</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7435,28 +7435,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R41" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S41" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T41" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U41" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V41" t="n">
-        <v>853.7716936371969</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.7173427870933</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.695819665511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
         <v>21.9427045873282</v>
@@ -7490,16 +7490,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L42" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M42" t="n">
-        <v>630.6851405540922</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N42" t="n">
         <v>630.6851405540922</v>
@@ -7517,25 +7517,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1020.367694097026</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>819.9812982300876</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>819.9812982300876</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V42" t="n">
-        <v>819.9812982300876</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W42" t="n">
-        <v>567.466806563421</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X42" t="n">
-        <v>567.466806563421</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.7383707870715</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H43" t="n">
         <v>21.9427045873282</v>
@@ -7593,28 +7593,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.0808785163064</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="C44" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D44" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E44" t="n">
-        <v>576.7173427870932</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F44" t="n">
-        <v>299.6629919369897</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G44" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H44" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I44" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J44" t="n">
-        <v>21.94270458732819</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K44" t="n">
         <v>143.241092649432</v>
@@ -7678,22 +7678,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T44" t="n">
-        <v>1097.13522936641</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U44" t="n">
-        <v>1097.13522936641</v>
+        <v>617.899996262405</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>340.8456454123015</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.0808785163064</v>
+        <v>340.8456454123015</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
         <v>21.9427045873282</v>
@@ -7727,22 +7727,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K45" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L45" t="n">
-        <v>270.0203090292462</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M45" t="n">
-        <v>541.5612782974326</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N45" t="n">
-        <v>813.1022475656191</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O45" t="n">
-        <v>1080.98186654294</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7751,28 +7751,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>774.5572931762155</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V45" t="n">
-        <v>540.3060497018164</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W45" t="n">
-        <v>287.7915580351497</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X45" t="n">
-        <v>159.3398866126235</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
         <v>21.9427045873282</v>
@@ -7981,25 +7981,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N2" t="n">
-        <v>271.6254354402928</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P2" t="n">
-        <v>279.6491905260257</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>188.5924226646379</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>182.2551889458879</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>276.99432233286</v>
       </c>
       <c r="P3" t="n">
-        <v>175.1642975672761</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,22 +8218,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>262.5353032024727</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L5" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>224.3457561361446</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>138.7230231510059</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>192.7777027386057</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>172.5974196195541</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>193.2283579979712</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,22 +8455,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L8" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M8" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N8" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O8" t="n">
-        <v>272.2934545697612</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8534,25 +8534,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>192.7777027386057</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>172.5974196195541</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O9" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.6792493985089</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8692,25 +8692,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>278.7845970612288</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>272.2934545697612</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8771,25 +8771,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>192.7777027386057</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>182.2551889458879</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>183.5705886716374</v>
+        <v>269.5263315788349</v>
       </c>
       <c r="P12" t="n">
-        <v>184.8220668936099</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8929,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>266.5948458611853</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>284.0692742603754</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N14" t="n">
-        <v>277.8747566713141</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>278.5427758007825</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>192.7777027386057</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>182.2551889458879</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O15" t="n">
-        <v>193.2283579979712</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.4894708262003</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2514961538888</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,13 +9491,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>277.816905905207</v>
+        <v>358.992471844272</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9719,25 +9719,25 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>319.9923377087007</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N24" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,25 +9953,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>136.482229733871</v>
@@ -10114,7 +10114,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10193,13 +10193,13 @@
         <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>288.5325750270039</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N30" t="n">
         <v>402.3419766228525</v>
@@ -10208,7 +10208,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10351,7 +10351,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>278.010061234286</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>308.0588738982702</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,22 +10664,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>358.5418165849065</v>
       </c>
       <c r="N36" t="n">
-        <v>210.6142818167799</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N39" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O39" t="n">
-        <v>351.5244810902469</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>331.2012793855346</v>
+        <v>315.5268646522953</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>354.7721594580186</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>134.395403</v>
@@ -11393,7 +11393,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>146.9415753334873</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22555,16 +22555,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>87.65380303623918</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>151.6679320589013</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>168.7680975317825</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>203.7410286559314</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.95824484047818</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>114.7645942410065</v>
+        <v>13.91136052974434</v>
       </c>
       <c r="T3" t="n">
-        <v>144.1855122436308</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>170.4601574025633</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22694,7 +22694,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22710,10 +22710,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E4" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>146.1590214098045</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -22789,7 +22789,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>115.015555248115</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -22801,13 +22801,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.65380303623918</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>175.8876594103697</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -22846,13 +22846,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1751059457069</v>
+        <v>27.29115216055629</v>
       </c>
       <c r="C6" t="n">
-        <v>116.8285642627631</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22925,13 +22925,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>156.7248946878652</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.4741317539481</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23035,16 +23035,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>291.0664456021028</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>151.0272882034861</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>87.65380303623918</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>151.6679320589013</v>
+        <v>106.126596917933</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -23089,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>127.0936653447771</v>
       </c>
       <c r="C9" t="n">
-        <v>123.288849006788</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>101.8364140425359</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -23117,7 +23117,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>114.7645942410065</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -23162,13 +23162,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>150.2646099438404</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>168.1603872967846</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T10" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23281,7 +23281,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>87.65380303623918</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8649517235392</v>
@@ -23314,19 +23314,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>274.3362018578815</v>
+        <v>205.9888229518551</v>
       </c>
       <c r="W11" t="n">
-        <v>296.3330973359167</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>323.7841413451188</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>117.2890032436017</v>
       </c>
       <c r="C12" t="n">
-        <v>116.8285642627631</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95.76949716293626</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>110.4625155221328</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>114.7645942410065</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.3825319082687</v>
@@ -23405,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>149.4741317539481</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -23427,10 +23427,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>161.6340720089168</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.56368021121028</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>119.1941280051444</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T13" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
         <v>286.0522703910642</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>329.5193903267572</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>94.11408778026404</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X14" t="n">
-        <v>316.6645794665315</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23624,25 +23624,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
-        <v>114.7645942410065</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U15" t="n">
-        <v>170.4601574025633</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>177.7117113750172</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.252611829387</v>
+        <v>50.24743635262979</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,22 +23655,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>130.6525565255045</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>91.9620017451666</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>113.6925692654702</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4370523442789</v>
+        <v>150.0574982985108</v>
       </c>
       <c r="I16" t="n">
         <v>153.7585467974036</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -23746,7 +23746,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>195.3788648349792</v>
       </c>
       <c r="H17" t="n">
         <v>338.1439033881534</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
@@ -23794,13 +23794,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>145.3977229475495</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,10 +23901,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>135.1354836983042</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>161.6340720089168</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>371.5882709767439</v>
+        <v>389.3290803050403</v>
       </c>
       <c r="G20" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
         <v>63.86009604655089</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -24050,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24059,7 +24059,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>84.77749677868428</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>136.0232102050423</v>
@@ -24068,7 +24068,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>49.59318754691476</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24183,10 +24183,10 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V22" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24220,10 +24220,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2655878973476</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I23" t="n">
         <v>205.224307868124</v>
@@ -24259,22 +24259,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>232.8537032664814</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W23" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24338,10 +24338,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.9727911936973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>117.0670640461102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.08473969597509</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>167.8895889301081</v>
@@ -24387,7 +24387,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.1720114207308</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>82.3209254129959</v>
@@ -24460,7 +24460,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24499,13 +24499,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -24578,19 +24578,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>232.2250950653388</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="28">
@@ -24654,10 +24654,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24697,10 +24697,10 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0.6592771345624158</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>108.4166770982525</v>
       </c>
       <c r="W29" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24761,25 +24761,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7466847037104</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>16.7212372212434</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24934,7 +24934,7 @@
         <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>106.126596917933</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
         <v>222.9651171964204</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>145.0978942447525</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25016,7 +25016,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>187.5691734527042</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>9.356427941230038</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>49.41933934989927</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U34" t="n">
         <v>286.0522703910642</v>
@@ -25168,7 +25168,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.420718625756</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
         <v>205.8649517235392</v>
@@ -25216,7 +25216,7 @@
         <v>54.24941418091686</v>
       </c>
       <c r="W35" t="n">
-        <v>76.2463096589521</v>
+        <v>309.1000129254336</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25238,13 +25238,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>109.1298172434139</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>136.0232102050423</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>44.9588168423125</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J37" t="n">
         <v>88.83884492777894</v>
@@ -25374,10 +25374,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
-        <v>200.9857800881045</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25402,16 +25402,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G38" t="n">
-        <v>258.7523500022262</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
         <v>0.6592771345624158</v>
@@ -25441,19 +25441,19 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>309.1000129254336</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -25478,13 +25478,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>152.1769636236993</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
         <v>110.4625155221328</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
         <v>168.9616139056444</v>
@@ -25526,7 +25526,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>137.4289928041133</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25563,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H40" t="n">
-        <v>150.6105342974165</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I40" t="n">
         <v>153.7585467974036</v>
@@ -25639,19 +25639,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I41" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V41" t="n">
-        <v>87.60332115059845</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25757,25 +25757,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
-        <v>92.96175398895402</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1120930370908</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I43" t="n">
         <v>153.7585467974036</v>
@@ -25833,10 +25833,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
@@ -25867,16 +25867,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>325.5549916038216</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>142.1881353833665</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>140.5709580622284</v>
@@ -25888,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -25933,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25958,7 +25958,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
         <v>110.4625155221328</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>77.29447490017731</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>363259.137380245</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>363259.1373802448</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>363259.137380245</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363259.1373802449</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363259.1373802449</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008524</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519667.5667008522</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519667.5667008522</v>
+        <v>519667.5667008523</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008522</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519667.5667008523</v>
+        <v>519667.5667008524</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72645.74561983685</v>
+        <v>103906.2743054105</v>
       </c>
       <c r="C2" t="n">
-        <v>72645.74561983685</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="D2" t="n">
-        <v>72645.74561983685</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="E2" t="n">
-        <v>72645.74561983682</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="F2" t="n">
-        <v>72645.74561983683</v>
+        <v>103906.2743054104</v>
       </c>
       <c r="G2" t="n">
         <v>103906.2743054104</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60322.48720044085</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313452</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52964.10554124921</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="C4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="D4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="E4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="F4" t="n">
-        <v>12183.87668831067</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="G4" t="n">
         <v>17659.22691552231</v>
@@ -26441,16 +26441,16 @@
         <v>17659.22691552232</v>
       </c>
       <c r="J4" t="n">
+        <v>17659.22691552232</v>
+      </c>
+      <c r="K4" t="n">
         <v>17659.22691552231</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17659.22691552232</v>
       </c>
       <c r="L4" t="n">
         <v>17659.22691552232</v>
       </c>
       <c r="M4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="N4" t="n">
         <v>17659.22691552232</v>
@@ -26459,7 +26459,7 @@
         <v>17659.22691552231</v>
       </c>
       <c r="P4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="C5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="D5" t="n">
-        <v>36922.77879560999</v>
+        <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="F5" t="n">
-        <v>3295.178795609984</v>
+        <v>16676.45548636943</v>
       </c>
       <c r="G5" t="n">
         <v>16676.45548636943</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5376.422314843745</v>
+        <v>-67664.94948747702</v>
       </c>
       <c r="C6" t="n">
-        <v>23539.09013591619</v>
+        <v>24253.8628802628</v>
       </c>
       <c r="D6" t="n">
-        <v>23539.09013591619</v>
+        <v>24253.86288026277</v>
       </c>
       <c r="E6" t="n">
-        <v>57166.69013591616</v>
+        <v>57881.46288026277</v>
       </c>
       <c r="F6" t="n">
-        <v>57166.69013591617</v>
+        <v>57881.46288026281</v>
       </c>
       <c r="G6" t="n">
-        <v>9248.104703077814</v>
+        <v>57881.46288026277</v>
       </c>
       <c r="H6" t="n">
-        <v>69570.59190351868</v>
+        <v>57881.46288026275</v>
       </c>
       <c r="I6" t="n">
-        <v>69570.59190351868</v>
+        <v>57881.46288026274</v>
       </c>
       <c r="J6" t="n">
-        <v>55390.2668903841</v>
+        <v>-13883.24960782349</v>
       </c>
       <c r="K6" t="n">
-        <v>69570.59190351865</v>
+        <v>57881.46288026278</v>
       </c>
       <c r="L6" t="n">
-        <v>69570.59190351862</v>
+        <v>57881.46288026281</v>
       </c>
       <c r="M6" t="n">
-        <v>69570.59190351862</v>
+        <v>57881.46288026274</v>
       </c>
       <c r="N6" t="n">
-        <v>69570.59190351868</v>
+        <v>57881.46288026278</v>
       </c>
       <c r="O6" t="n">
-        <v>16606.48636226942</v>
+        <v>57881.46288026277</v>
       </c>
       <c r="P6" t="n">
-        <v>69570.59190351862</v>
+        <v>57881.46288026277</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G4" t="n">
         <v>274.2838073416025</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>220.0867876769646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N2" t="n">
-        <v>47.94769843361666</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
-        <v>54.19701966463789</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.19701966463789</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>137.9629839995266</v>
       </c>
       <c r="P3" t="n">
-        <v>44.53925033830414</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.94769843361666</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L5" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.327620151005933</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>44.53925033830414</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L8" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M8" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N8" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O8" t="n">
-        <v>47.94769843361666</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35254,25 +35254,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44.53925033830414</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O9" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.19701966463789</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L11" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>54.19701966463789</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O11" t="n">
-        <v>47.94769843361666</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>54.19701966463789</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.53925033830414</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="P12" t="n">
-        <v>54.19701966463789</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>52.00724109232928</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L14" t="n">
-        <v>54.19701966463789</v>
+        <v>204.4954085367308</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N14" t="n">
-        <v>54.19701966463789</v>
+        <v>231.1630643817873</v>
       </c>
       <c r="O14" t="n">
-        <v>54.19701966463789</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.2184856369541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>54.19701966463789</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O15" t="n">
-        <v>54.19701966463789</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.00724109232928</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>140.6484434930818</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.1933268726387</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
@@ -35983,7 +35983,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>140.6484434930818</v>
@@ -36211,13 +36211,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>138.7855675718737</v>
+        <v>219.9611335109387</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
-        <v>184.9018174233233</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L29" t="n">
         <v>204.4954085367308</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>149.951891953036</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N30" t="n">
         <v>274.2838073416025</v>
@@ -36928,7 +36928,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L32" t="n">
         <v>204.4954085367308</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>149.951891953036</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>177.4338266692982</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M36" t="n">
+        <v>219.9611335109387</v>
+      </c>
+      <c r="N36" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N36" t="n">
-        <v>82.55611253552989</v>
-      </c>
       <c r="O36" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>200.5762321565626</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N39" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O39" t="n">
-        <v>212.4931427569136</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>200.5762321565626</v>
+        <v>184.9018174233233</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>140.6484434930818</v>
@@ -37867,10 +37867,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>216.1914763840507</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>16.31652810451531</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
